--- a/fortune-quest/checklist.xlsx
+++ b/fortune-quest/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/fortune-quest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD76B4D1-0C18-A048-B9D1-47C6890B34EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BB6E62-28E3-F44C-B45E-3EBA98EE62DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{0858A852-A2FB-D948-8B55-F95A5B2A4A38}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>year</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>rulebook</t>
+  </si>
+  <si>
+    <t>product_code</t>
+  </si>
+  <si>
+    <t>G-2-1</t>
   </si>
 </sst>
 </file>
@@ -193,9 +199,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B2A2BC-04C3-7540-8C9F-472F0A9C9AE2}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -524,7 +531,7 @@
     <col min="5" max="5" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,8 +550,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1991</v>
       </c>
@@ -563,8 +573,9 @@
       <c r="F2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1995</v>
       </c>
@@ -583,8 +594,9 @@
       <c r="F3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1997</v>
       </c>
@@ -603,8 +615,11 @@
       <c r="F4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1997</v>
       </c>
@@ -623,8 +638,9 @@
       <c r="F5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1998</v>
       </c>
@@ -643,8 +659,9 @@
       <c r="F6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1999</v>
       </c>
@@ -663,8 +680,9 @@
       <c r="F7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1999</v>
       </c>
@@ -683,8 +701,9 @@
       <c r="F8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2002</v>
       </c>
@@ -703,8 +722,9 @@
       <c r="F9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2005</v>
       </c>
@@ -723,6 +743,7 @@
       <c r="F10" t="s">
         <v>34</v>
       </c>
+      <c r="G10" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
